--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jensj\Documents\R\berry_paper_sdms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1324A8-640F-4485-9988-F9BB22A02F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AAE79B-8D61-49F4-8795-DD31D7D7AA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B76E9FAF-F01E-449D-8CF8-ECD7B551E965}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t>TAXON</t>
   </si>
@@ -85,9 +85,6 @@
     <t>PRIMARY_ASSOCIATED_CROP_TYPE_GENERAL_2</t>
   </si>
   <si>
-    <t>SECONDARY_ASSOCIATED_CROP_TYPE_GENERAL</t>
-  </si>
-  <si>
     <t>PRIMARY_CROP_OR_WUS_USE_SPECIFIC_1</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>PRIMARY_CROP_OR_WUS_USE_SPECIFIC_3</t>
   </si>
   <si>
-    <t>SECONDARY_CROP_OR_WUS_USE_1</t>
-  </si>
-  <si>
     <t>TIER</t>
   </si>
   <si>
@@ -166,9 +160,6 @@
     <t>Column Description</t>
   </si>
   <si>
-    <t>TAXON_INFRA</t>
-  </si>
-  <si>
     <t>total_accessions_sp</t>
   </si>
   <si>
@@ -199,14 +190,341 @@
     <t>NPGS_accessions_w_finest_taxon_res</t>
   </si>
   <si>
-    <t>SECONDARY_ASSOCIATED_CROP_COMMON_NAME</t>
-  </si>
-  <si>
     <t>GENETIC_RELATIONSHIP_NOTES</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">name of the taxon, either a species or infraspecific taxon identity. For species that include subordinate infraspecific taxa, rows are included for both taxonomic levels. For example, the row TAXON == “Rubus arcticus” is immediately followed by rows for its subordinate infraspecific taxa, TAXON == “Rubus arcticus subsp. acaulis”, "Rubus arcticus subsp. arcticus" and "Rubus arcticus subsp. stellatus". The full scientific name is reported in the column scientificName, e.g., scientificName == “Rubus arcticus L.”. To remove duplicate taxa, the inventory must be sorted by FINEST_TAXON_RESOLUTION == “Y”. Sorting would remove e.g., the row where TAXON == “Rubus arcticus” but not the row where TAXON == “Rubus allegheniensis” given thatRubus allegheniensis does not include any subordinate infraspecific levels. Such filtering </t>
+    <t>species name; infraspecific taxa from the same species are united through shared values in this column.</t>
+  </si>
+  <si>
+    <t>If the taxa is a relative (in the same genus) of a food crop listed by GRIN-global CWR database (https://npgsweb.ars-grin.gov/gringlobal/taxon/taxonomysearchcwr) OR Amelanchier (of domestic agricultural importance), or a relative or used directly as a forest resource or ornamental == Y. In this manuscript, crop wild relative definition takes a more broad definition and therefore this column is not utilized.</t>
+  </si>
+  <si>
+    <t>If the taxa is utilized directly for food, medicine, forest resource, ornamental == Y. The definition of crop wild relative where a taxon in the genepool of a crop is considered to be a crop wild relative, crop wild relative status does not necessarily confer that the taxon is utilized itself. However, in this berry list, 290/294 taxa (98%) appear to be have potential for wild-utilization. Given this almost complete overlap between crop wild relative and wild-utilized definitions, further distinctions are not made in the manuscript.</t>
+  </si>
+  <si>
+    <t>In Ulrich et al, submitted, we explored ex situ conservation of CWR by collecting data on accessions held in genebanks and in botanical gardens. Generally, accessions were identified at the species level only, however, we are interested to explore the conservation of different infraspecific taxa which may have unique genotypes/phenotypes. Infraspecific identifications for accessions are either not assigned OR we are not confident that they are assigned with accuracy by expert taxonomist. If == “Y”, we had manually assigned infraspecific taxon names to all accessions within the species (collected from within Canada). We only did so if either a) only 1 infraspecific taxon exists within Canada and thus couldn’t be confused or b) if infraspecific taxa are geographically isolated and therefore there is little chance of mistaking the identifications. If “N”, no infraspecific taxon names are given to accessions within the species, all accessions are labelled at the species only. If blank/NA the taxon is a species with no subordinate taxa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use this column as a way to filter out double-dipped taxa – e.g. don’t want to count both </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“Rubus arcticus” and “Rubus arcticus subsp. acaulis” if a count of the number of relatives of raspberry/blackberry is desired. In this case we would not want to count both of these taxa as unique relatives of raspberry/blackberry, given that one taxon is a subset of the other.</t>
+    </r>
+  </si>
+  <si>
+    <t>Global conservation score from low conservation concern G5 to highest conservation concern G1. Obtained from NatureServe</t>
+  </si>
+  <si>
+    <t>National (Canadian) conservation score from low conservation concern N5 to highest conservation concern N1. Obtained from NatureServe</t>
+  </si>
+  <si>
+    <t>COSEWIC assessment score (if taxon has been assessed by the COSEWIC panel)</t>
+  </si>
+  <si>
+    <t>Total number of accessions in the 7 surveyed Canadian Botanical Gardens (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
+  </si>
+  <si>
+    <t>Total number of accessions in Canada's national PGR system and the genebanks of the U.S. NPGS (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
+  </si>
+  <si>
+    <t>Total number of accessions in Canada's national PGR system ONLY (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
+  </si>
+  <si>
+    <t>Total number of accessions in the genebanks of the U.S. NPGS ONLY(as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
+  </si>
+  <si>
+    <t>For accessions with provenance data indicating origin from wild-population in Canada, total number of accessions in the 7 surveyed Canadian Botanical Gardens (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
+  </si>
+  <si>
+    <t>For accessions with provenance data indicating origin from wild-population in Canada, total number of accessions in Canada's national PGR system and the genebanks of the U.S. NPGS (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
+  </si>
+  <si>
+    <t>For accessions with provenance data indicating origin from wild-population in Canada, total number of accessions in Canada's national PGR system ONLY (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
+  </si>
+  <si>
+    <t>Source where the taxon was obtained during the inventory assembly process</t>
+  </si>
+  <si>
+    <t>Source describing wild-utilization for food, medicine or materials.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For those taxa in the genepool (genus) of agricultural crops of global or national importance (See column “CWR”), indicates the common name of that associated crop. e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Malus fusca </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Malus coronaria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> are in the same genus as cultivated apple, and so the column indicates "Apple" for these taxa. For plant taxa that are not congeneric with agricultural crops of global or national importance, the column indicates a common name for the genus,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e.g.,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Cornus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>spp. are collectively commonly referred to as “Dogwood”.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>genus name</t>
+  </si>
+  <si>
+    <t>infraspecific taxon epither, e.g., for “Rubus arcticus subsp. stellatus”, INFRASPECIFIC == “stellatus”</t>
+  </si>
+  <si>
+    <t>If == "Y" we were unable to model species distribution due to a lack of occurrence points confidently associated with the taxon name used.</t>
+  </si>
+  <si>
+    <t>Notes if any on the genepool categorization</t>
+  </si>
+  <si>
+    <t>Notes if any on wild-utilization</t>
+  </si>
+  <si>
+    <t>If == "Y" indicates that the taxon is native to Canada. If == "N", indicates that the taxon was recently introduced but now naturalized in Canada (as determined by VASCAN).</t>
+  </si>
+  <si>
+    <t>Alternate category of CWR or WUS use, many taxa are used for two (or more) purposes</t>
+  </si>
+  <si>
+    <t>The broad category of CWR or WUS use - either food, medicinals, ornamentals, or forest resources</t>
+  </si>
+  <si>
+    <t>For food crop cwr, lists the specific food type. For Migicovsky et al., manuscript, those focus is on berries and so all specific food categories are "fruit"</t>
+  </si>
+  <si>
+    <t>Alternate specific use category</t>
+  </si>
+  <si>
+    <t>for those crops in the genus of a crop of national or global agricultural importance, indicates the genetic proximity of the crop wild relative to that crop, from closest to furthest genetic proximity: progenitor, primary, secondary, and tertiary. Values obtained from GRIN-Global Crop Wild Relative Database. If no data was available on genetic proximity to crop, we assume distant genetic relationship and indicate as such.</t>
+  </si>
+  <si>
+    <t>Known value as graftstock for cultivated crops.</t>
+  </si>
+  <si>
+    <t>Indicates a breedable trait conferring resistance to an abiotic factor, if any known (obtained via GRIN-Global)</t>
+  </si>
+  <si>
+    <t>Indicates a breedable trait conferring resistance to an biotic factor, if any known (obtained via GRIN-Global)</t>
+  </si>
+  <si>
+    <t>Indicates a breedable agronomic trait including crop quality, yield, maturation, or growth habit, if any known (obtained via GRIN-Global)</t>
+  </si>
+  <si>
+    <t>Indicates a breedable fertility trait, if any known (obtained via GRIN-Global)</t>
+  </si>
+  <si>
+    <t>Indicates a breedable agronomic trait including crop quality, yield, or growth habit, if any known (obtained via GRIN-Global)</t>
+  </si>
+  <si>
+    <t>Indicates a breedable phenological trait including early or late maturation, if any known (obtained via GRIN-Global)</t>
+  </si>
+  <si>
+    <t>US states where taxon occurs (obtained via NatureServe Canada)</t>
+  </si>
+  <si>
+    <t>Canadian provinces where taxon occurs (obtained via NatureServe Canada)</t>
+  </si>
+  <si>
+    <t>Total number of accessions in Canada's national PGR system, the genebanks of the U.S. NPGS, and 7 surveyed Canadian Botanical Gardens (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa. For example, Fragaria virginiana is represented by 440 total accessions (the sum of 8 accessions in surveyed botanical gardens and 432 in genebanks). Fragaria virginiana has 3 subordinate taxa, but because this value is aggregated at the species level, all three subordinate taxa have the same value of 440 total accessions since this value represents the sum of accessions at the species taxonomic level.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For accessions with provenance data indicating origin from wild-population in Canada, total number of accessions in Canada's national PGR system, the genebanks of the U.S. NPGS, and 7 surveyed Canadian Botanical Gardens (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa. For example, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fragaria virginiana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is represented by 60 accessions from native population (the sum of 5 accessions in surveyed botanical gardens and 55 in genebanks). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fragaria virginiana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> has 3 subordinate taxa, and since this value is NOT aggregated at the species level, rows for all three subordinate taxa indicate the accessions linked to those taxa. For example, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fragaria virginiana subsp. glauca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is represented by 6 accessions from native populations (1 in surveyed botanical gardens and 5 in genebanks). These contribute alongside the accessions for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fragaria virginiana subsp. platypetala</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fragaria virginiana subsp. virginiana </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">to the summed accessions from native populations for the species row for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fragaria virginiana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. For a species where we were unable to assign accessions below the species taxonomic level (</t>
     </r>
     <r>
       <rPr>
@@ -216,6 +534,549 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>INFRASPECIFIC_COLLECTIONS_ASSIGNED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == "N"), the accessions here are the subset of "total_accessions_sp" that are collected from native populations in Canada and included provenance data. For the infraspecific taxon rows the values here (and the breakdown by gardens and genebanks) are represented by "NA" values. For example, for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Amelanchier alnifolia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> total_accessions_w_finest_taxon_res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == 32. These may comprised of accessions from any or all of the 4 infraspecific taxa occurring in Canada which we were not able to separate based on provenance data alone.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For accessions with provenance data indicating origin from wild-population in Canada, total number of accessions in the genebanks of the U.S. NPGS ONLY (as of 2021). Here, all accessions are listed at the finest taxon level assignable - see column "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INFRASPECIES_COLLECTIONS_ASSIGNED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">". If infraspecific collections were assigned, accesion counts for specific subordinate taxa are listed, for example see </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fragaria vesca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and subordinate taxa. If infraspecific collections were not able to be assigned, accesion counts for specific subordinate taxa are listed as "NA", but accession counts grouped at the species level for the species row are included.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if row is for an infraspecific taxon, rank specifies the designation for the unit, either var. (variety) or subsp. (subspecies), e.g. for “</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rubus arcticus subsp. arcticus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">”, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RANK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == “subsp.” and for "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Amelanchier alnifolia var. alnifolia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RANK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == "var."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>full taxon name including authorship, e.g. "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Rubus arcticus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>subsp</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. acaulis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Michx.) Focke"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In Ulrich et al, submitted, we categorized potential breeding utility from highest to lowest as: 1A - crop wild relatives that are progenitors or in the primary genepool of a crop OR used as graftstock, 1B - crop wild relatives that are in the secondary genepool of a crop, 1C - cwr that are tertiary relatives or of unknown (assumed distant) genetic distance to a crop. Note, for genera with multiple crops (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vaccinium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), the status indicates proximity to at least one crop, but may not hold true for the relationship between the cwr and all crops in the genus. In Vaccinium, some taxa are immediate (primary) relatives of cranberry but not highbush blueberry, and vice versa, but all of these taxa are of high breeding utility.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the taxa is a relative (in the same genus) of a food crop listed by GRIN-global CWR database (https://npgsweb.ars-grin.gov/gringlobal/taxon/taxonomysearchcwr) OR </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Amelanchier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (of domestic agricultural importance) == 1; if taxa is not in Tier 1, but has  importance as a forest genetic resource or ornamental genetic resource (not directly related to food crop and food crop security) == 2; otherwise == NA. This column was used to filter the list to taxa that are genetic resources of crops with direct relavance for national and global food security in Ulrich et al. ("An inventory of crop wild relatives and wild-utilized plants in Canada") but is not considered in this manuscript.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">name of the taxon, either a species or infraspecific taxon identity. For species that include subordinate infraspecific taxa, rows are included for both taxonomic levels. For example, the row </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TAXON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == “</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rubus arcticus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">” is immediately followed by rows for its subordinate infraspecific taxa, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TAXON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == “</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rubus arcticus subsp. acaulis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”, "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rubus arcticus subsp. arcticus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>" and "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rubus arcticus subsp. stellatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">". The full scientific name is reported in the column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>scientificName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>scientificName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == “</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rubus arcticus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> L.”. To remove duplicate taxa, the inventory must be sorted by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FINEST_TAXON_RESOLUTION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == “Y”. Sorting would remove e.g., the row where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TAXON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == “</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rubus arcticus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">” but not the row where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TAXON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == “Rubus allegheniensis” given that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rubus allegheniensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> does not include any subordinate infraspecific levels. Such filtering </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t xml:space="preserve">must </t>
     </r>
     <r>
@@ -225,268 +1086,26 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>be done to reproduce counts of taxa in the paper. The .csv file includes 293 rows but only 254 taxa, once double-dipped taxa such as Rubus arcticus and it's three subordiante subspecies are filtered to three rather than four rows.</t>
-    </r>
-  </si>
-  <si>
-    <t>species name; infraspecific taxa from the same species are united through shared values in this column.</t>
-  </si>
-  <si>
-    <t>If the taxa is a relative (in the same genus) of a food crop listed by GRIN-global CWR database (https://npgsweb.ars-grin.gov/gringlobal/taxon/taxonomysearchcwr) OR Amelanchier (of domestic agricultural importance) == 1; if taxa is not in Tier 1, but has  importance as a forest genetic resource or ornamental genetic resource (not directly related to food crop and food crop security) == 2; otherwise == NA. This column was used to filter the list to taxa that are genetic resources of crops with direct relavance for national and global food security in Ulrich et al. ("An inventory of crop wild relatives and wild-utilized plants in Canada") but is not considered in this manuscript.</t>
-  </si>
-  <si>
-    <t>If the taxa is a relative (in the same genus) of a food crop listed by GRIN-global CWR database (https://npgsweb.ars-grin.gov/gringlobal/taxon/taxonomysearchcwr) OR Amelanchier (of domestic agricultural importance), or a relative or used directly as a forest resource or ornamental == Y. In this manuscript, crop wild relative definition takes a more broad definition and therefore this column is not utilized.</t>
-  </si>
-  <si>
-    <t>If the taxa is utilized directly for food, medicine, forest resource, ornamental == Y. The definition of crop wild relative where a taxon in the genepool of a crop is considered to be a crop wild relative, crop wild relative status does not necessarily confer that the taxon is utilized itself. However, in this berry list, 290/294 taxa (98%) appear to be have potential for wild-utilization. Given this almost complete overlap between crop wild relative and wild-utilized definitions, further distinctions are not made in the manuscript.</t>
-  </si>
-  <si>
-    <t>In Ulrich et al, submitted, we explored ex situ conservation of CWR by collecting data on accessions held in genebanks and in botanical gardens. Generally, accessions were identified at the species level only, however, we are interested to explore the conservation of different infraspecific taxa which may have unique genotypes/phenotypes. Infraspecific identifications for accessions are either not assigned OR we are not confident that they are assigned with accuracy by expert taxonomist. If == “Y”, we had manually assigned infraspecific taxon names to all accessions within the species (collected from within Canada). We only did so if either a) only 1 infraspecific taxon exists within Canada and thus couldn’t be confused or b) if infraspecific taxa are geographically isolated and therefore there is little chance of mistaking the identifications. If “N”, no infraspecific taxon names are given to accessions within the species, all accessions are labelled at the species only. If blank/NA the taxon is a species with no subordinate taxa.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use this column as a way to filter out double-dipped taxa – e.g. don’t want to count both </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“Rubus arcticus” and “Rubus arcticus subsp. acaulis” if a count of the number of relatives of raspberry/blackberry is desired. In this case we would not want to count both of these taxa as unique relatives of raspberry/blackberry, given that one taxon is a subset of the other.</t>
-    </r>
-  </si>
-  <si>
-    <t>Global conservation score from low conservation concern G5 to highest conservation concern G1. Obtained from NatureServe</t>
-  </si>
-  <si>
-    <t>National (Canadian) conservation score from low conservation concern N5 to highest conservation concern N1. Obtained from NatureServe</t>
-  </si>
-  <si>
-    <t>COSEWIC assessment score (if taxon has been assessed by the COSEWIC panel)</t>
-  </si>
-  <si>
-    <t>Total number of accessions in Canada's national PGR system, the genebanks of the U.S. NPGS, and 7 surveyed Canadian Botanical Gardens (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
-  </si>
-  <si>
-    <t>Total number of accessions in the 7 surveyed Canadian Botanical Gardens (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
-  </si>
-  <si>
-    <t>Total number of accessions in Canada's national PGR system and the genebanks of the U.S. NPGS (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
-  </si>
-  <si>
-    <t>Total number of accessions in Canada's national PGR system ONLY (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
-  </si>
-  <si>
-    <t>Total number of accessions in the genebanks of the U.S. NPGS ONLY(as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
-  </si>
-  <si>
-    <t>For accessions with provenance data indicating origin from wild-population in Canada, total number of accessions in Canada's national PGR system, the genebanks of the U.S. NPGS, and 7 surveyed Canadian Botanical Gardens (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
-  </si>
-  <si>
-    <t>For accessions with provenance data indicating origin from wild-population in Canada, total number of accessions in the 7 surveyed Canadian Botanical Gardens (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
-  </si>
-  <si>
-    <t>For accessions with provenance data indicating origin from wild-population in Canada, total number of accessions in Canada's national PGR system and the genebanks of the U.S. NPGS (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
-  </si>
-  <si>
-    <t>For accessions with provenance data indicating origin from wild-population in Canada, total number of accessions in Canada's national PGR system ONLY (as of 2021). Here, all accessions are aggregated at the species level for taxa with multiple subordinate infraspecific taxa.</t>
-  </si>
-  <si>
-    <t>For accessions with provenance data indicating origin from wild-population in Canada, total number of accessions in the genebanks of the U.S. NPGS ONLY (as of 2021). Here, all accessions are listed at the finest taxon level assignable - see column "INFRASPECIES_COLLECTIONS_ASSIGNED". If infraspecific collections were assigned, accesion counts for specific subordinate taxa are listed, for example see Fragaria vesca and subordinate taxa. If infraspecific collections were not able to be assigned, accesion counts for specific subordinate taxa are listed as "NA", but accession counts grouped at the species level for the species row are included.</t>
-  </si>
-  <si>
-    <t>Source where the taxon was obtained during the inventory assembly process</t>
-  </si>
-  <si>
-    <t>Source describing wild-utilization for food, medicine or materials.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For those taxa in the genepool (genus) of agricultural crops of global or national importance (See column “CWR”), indicates the common name of that associated crop. e.g. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Malus fusca </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Malus coronaria</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> are in the same genus as cultivated apple, and so the column indicates "Apple" for these taxa. For plant taxa that are not congeneric with agricultural crops of global or national importance, the column indicates a common name for the genus,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>e.g.,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Cornus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>spp. are collectively commonly referred to as “Dogwood”.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>genus name</t>
-  </si>
-  <si>
-    <t>if row is for an infraspecific taxon, rank specifies the designation for the unit, either var. (variety) or subsp. (subspecies), e.g. for “Rubus arcticus subsp. arcticus”, RANK == “subsp.” and for "Amelanchier alnifolia var. alnifolia", RANK == "var."</t>
-  </si>
-  <si>
-    <t>infraspecific taxon epither, e.g., for “Rubus arcticus subsp. stellatus”, INFRASPECIFIC == “stellatus”</t>
-  </si>
-  <si>
-    <t>full taxon name including authorship, e.g. "Rubus arcticus subsp. acaulis (Michx.) Focke"</t>
-  </si>
-  <si>
-    <t>If == "Y" we were unable to model species distribution due to a lack of occurrence points confidently associated with the taxon name used.</t>
-  </si>
-  <si>
-    <t>Notes if any on the genepool categorization</t>
-  </si>
-  <si>
-    <t>Notes if any on wild-utilization</t>
-  </si>
-  <si>
-    <t>If == "Y" indicates that the taxon is native to Canada. If == "N", indicates that the taxon was recently introduced but now naturalized in Canada (as determined by VASCAN).</t>
-  </si>
-  <si>
-    <t>Column can be removed</t>
-  </si>
-  <si>
-    <t>Alternate category of CWR or WUS use, many taxa are used for two (or more) purposes</t>
-  </si>
-  <si>
-    <t>The broad category of CWR or WUS use - either food, medicinals, ornamentals, or forest resources</t>
-  </si>
-  <si>
-    <t>For food crop cwr, lists the specific food type. For Migicovsky et al., manuscript, those focus is on berries and so all specific food categories are "fruit"</t>
-  </si>
-  <si>
-    <t>Alternate specific use category</t>
-  </si>
-  <si>
-    <t>for those crops in the genus of a crop of national or global agricultural importance, indicates the genetic proximity of the crop wild relative to that crop, from closest to furthest genetic proximity: progenitor, primary, secondary, and tertiary. Values obtained from GRIN-Global Crop Wild Relative Database. If no data was available on genetic proximity to crop, we assume distant genetic relationship and indicate as such.</t>
-  </si>
-  <si>
-    <t>In Ulrich et al, submitted, we categorized potential breeding utility from highest to lowest as: 1A - crop wild relatives that are progenitors or in the primary genepool of a crop OR used as graftstock, 1B - crop wild relatives that are in the secondary genepool of a crop, 1C - cwr that are tertiary relatives or of unknown (assumed distant) genetic distance to a crop. Note, for genera with multiple crops (e.g., Vaccinium), the status indicates proximity to at least one crop, but may not hold true for the relationship between the cwr and all crops in the genus. In Vaccinium, some taxa are immediate (primary) relatives of cranberry but not highbush blueberry, and vice versa, but all of these taxa are of high breeding utility.</t>
-  </si>
-  <si>
-    <t>Known value as graftstock for cultivated crops.</t>
-  </si>
-  <si>
-    <t>Indicates a breedable trait conferring resistance to an abiotic factor, if any known (obtained via GRIN-Global)</t>
-  </si>
-  <si>
-    <t>Indicates a breedable trait conferring resistance to an biotic factor, if any known (obtained via GRIN-Global)</t>
-  </si>
-  <si>
-    <t>Indicates a breedable agronomic trait including crop quality, yield, maturation, or growth habit, if any known (obtained via GRIN-Global)</t>
-  </si>
-  <si>
-    <t>Indicates a breedable fertility trait, if any known (obtained via GRIN-Global)</t>
-  </si>
-  <si>
-    <t>Indicates a breedable agronomic trait including crop quality, yield, or growth habit, if any known (obtained via GRIN-Global)</t>
-  </si>
-  <si>
-    <t>Indicates a breedable phenological trait including early or late maturation, if any known (obtained via GRIN-Global)</t>
-  </si>
-  <si>
-    <t>US states where taxon occurs (obtained via NatureServe Canada)</t>
-  </si>
-  <si>
-    <t>Canadian provinces where taxon occurs (obtained via NatureServe Canada)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Should delete column - not needed; originally retained for cases where crop wild relative related to two or more crop species from two different functional categories, e.g. Jerusalem artichoke (vegetable) and sunflower (oil) both from </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Helianthus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and therefore having overlapping genepools under the definition of Harlan and de Wet 1971.</t>
+      <t xml:space="preserve">be done to reproduce counts of taxa in the paper. The .csv file includes 293 rows but only 254 taxa, once double-dipped taxa such as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rubus arcticus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and it's three subordiante subspecies are filtered to three rather than four rows.</t>
     </r>
   </si>
 </sst>
@@ -896,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFA72DE-398B-4E61-AEF8-CBA291CC1F71}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -911,442 +1530,410 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="201.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="124" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="93" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="186" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="9" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="124" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="93" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="186" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="124" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="325.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="124" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="124" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="93" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="93" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>86</v>
+        <v>15</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>17</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="124" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="124" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jensj\Documents\R\berry_paper_sdms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AAE79B-8D61-49F4-8795-DD31D7D7AA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDFCB71-0601-42A9-B159-D0B5D518C586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B76E9FAF-F01E-449D-8CF8-ECD7B551E965}"/>
+    <workbookView xWindow="1800" yWindow="30" windowWidth="15240" windowHeight="10050" activeTab="1" xr2:uid="{B76E9FAF-F01E-449D-8CF8-ECD7B551E965}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="berries_list.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="out_of_bound_ranges_provincial" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t>TAXON</t>
   </si>
@@ -1107,6 +1109,21 @@
       </rPr>
       <t xml:space="preserve"> and it's three subordiante subspecies are filtered to three rather than four rows.</t>
     </r>
+  </si>
+  <si>
+    <t>PROVINCE</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>Name of a species</t>
+  </si>
+  <si>
+    <t>Provincial region where species is supsected to not reliably occur with established, self-sustaining populations. Occurrence points from these regions possibly reflect plants in cultivation.</t>
+  </si>
+  <si>
+    <t>Authority used to define an out of bounds province (FNA = Flora of North America; VASCAN = Database of Vascular Plants of Canada)</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1199,6 +1216,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1517,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFA72DE-398B-4E61-AEF8-CBA291CC1F71}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1940,4 +1960,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2087BB-3555-404C-8E8E-3AC465D9DCFE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="58.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F16E94F-CC1E-4DC4-A1C7-BEBD33BBDADF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>